--- a/GradedExercise.xlsx
+++ b/GradedExercise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="2260" windowWidth="30440" windowHeight="24580" tabRatio="500"/>
+    <workbookView xWindow="35240" yWindow="16800" windowWidth="20120" windowHeight="18760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> per Criteria</t>
@@ -143,7 +143,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> per Unit</t>
@@ -175,7 +175,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -638,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -661,11 +661,11 @@
       </c>
       <c r="G6" s="4">
         <f>SUM(G4:G5)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H6" s="4">
         <f>MIN(C6,G6)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -698,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -709,7 +709,7 @@
         <v>31</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -720,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -743,11 +743,11 @@
       </c>
       <c r="G14" s="4">
         <f>SUM(G8:G13)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H14" s="4">
         <f>MIN(C14,G14)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -762,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -773,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -784,7 +784,7 @@
         <v>12</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -806,7 +806,7 @@
         <v>14</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -828,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -840,11 +840,11 @@
       </c>
       <c r="G23" s="4">
         <f>SUM(G16:G22)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H23" s="4">
         <f>MIN(C23,G23)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -899,7 +899,7 @@
         <v>20</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -911,11 +911,11 @@
       </c>
       <c r="G30" s="4">
         <f>SUM(G25:G29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4">
         <f>MIN(C30,G30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -927,11 +927,11 @@
       </c>
       <c r="H33">
         <f>SUM(H4:H30)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I33">
         <f>MIN(C33,H33)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -946,7 +946,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="6">
         <f>1 + TOTAL_POINTS/10</f>
-        <v>1</v>
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>
